--- a/src/data/dataRekapPesanan.xlsx
+++ b/src/data/dataRekapPesanan.xlsx
@@ -1,34 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lenovo\Documents\NetBeansProjects\FoodCourt\src\backupData\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
+    <workbookView activeTab="12" firstSheet="8" windowHeight="7755" windowWidth="20490" xWindow="0" yWindow="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Oto Bento" sheetId="1" r:id="rId1"/>
-    <sheet name="Ootoya" sheetId="2" r:id="rId2"/>
-    <sheet name="Arasseo" sheetId="3" r:id="rId3"/>
-    <sheet name="Kyochon" sheetId="4" r:id="rId4"/>
-    <sheet name="Han Gang" sheetId="5" r:id="rId5"/>
-    <sheet name="PHD" sheetId="6" r:id="rId6"/>
-    <sheet name="Delicio" sheetId="7" r:id="rId7"/>
-    <sheet name="Bodega" sheetId="8" r:id="rId8"/>
-    <sheet name="Aciap" sheetId="9" r:id="rId9"/>
-    <sheet name="Kacamata" sheetId="10" r:id="rId10"/>
-    <sheet name="Mangkok Putih" sheetId="11" r:id="rId11"/>
-    <sheet name="Ayam Bakar Ganthari" sheetId="12" r:id="rId12"/>
-    <sheet name="Ayam Betutu Ibu Putu" sheetId="13" r:id="rId13"/>
+    <sheet name="Oto Bento" r:id="rId1" sheetId="1"/>
+    <sheet name="Ootoya" r:id="rId2" sheetId="2"/>
+    <sheet name="Arasseo" r:id="rId3" sheetId="3"/>
+    <sheet name="Kyochon" r:id="rId4" sheetId="4"/>
+    <sheet name="Han Gang" r:id="rId5" sheetId="5"/>
+    <sheet name="PHD" r:id="rId6" sheetId="6"/>
+    <sheet name="Delicio" r:id="rId7" sheetId="7"/>
+    <sheet name="Bodega" r:id="rId8" sheetId="8"/>
+    <sheet name="Aciap" r:id="rId9" sheetId="9"/>
+    <sheet name="Kacamata" r:id="rId10" sheetId="10"/>
+    <sheet name="Mangkok Putih" r:id="rId11" sheetId="11"/>
+    <sheet name="Ayam Bakar Ganthari" r:id="rId12" sheetId="12"/>
+    <sheet name="Ayam Betutu Ibu Putu" r:id="rId13" sheetId="13"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -1389,6 +1389,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="0"/>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1451,33 +1452,33 @@
     </border>
   </borders>
   <cellStyleXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="10">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="3" xfId="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="3" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="1"/>
+    <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="1" numFmtId="1" xfId="1"/>
+    <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="1" numFmtId="2" xfId="1"/>
+    <xf applyFont="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="1"/>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="2" numFmtId="1" xfId="1"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="2" fontId="2" numFmtId="0" xfId="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
     <cellStyle name="Normal 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1494,10 +1495,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -1532,7 +1533,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin panose="020F0302020204030204" typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1567,7 +1568,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1661,21 +1662,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -1692,7 +1693,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -1744,24 +1745,24 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" name="Office Theme" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="20.5703125" collapsed="false"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="9.42578125" collapsed="false"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -1959,14 +1960,14 @@
     <sortCondition ref="C2:C21"/>
     <sortCondition ref="A2:A21"/>
   </sortState>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="portrait" paperSize="9" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C71"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D71"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C1" sqref="C1"/>
@@ -1974,12 +1975,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="31.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="9.140625" style="3"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="3" width="31.42578125" collapsed="false"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="3" width="11.85546875" collapsed="false"/>
+    <col min="3" max="16384" style="3" width="9.140625" collapsed="false"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="1" spans="1:3" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>447</v>
       </c>
@@ -1988,7 +1989,7 @@
       </c>
       <c r="C1" s="6"/>
     </row>
-    <row r="2" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="2" spans="1:3" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>219</v>
       </c>
@@ -1996,7 +1997,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="3" spans="1:3" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
         <v>220</v>
       </c>
@@ -2004,7 +2005,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="4" spans="1:3" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
         <v>221</v>
       </c>
@@ -2012,7 +2013,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="5" spans="1:3" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
         <v>222</v>
       </c>
@@ -2020,7 +2021,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="6" spans="1:3" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
         <v>223</v>
       </c>
@@ -2028,7 +2029,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="7" spans="1:3" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
         <v>224</v>
       </c>
@@ -2036,7 +2037,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="8" spans="1:3" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>225</v>
       </c>
@@ -2044,7 +2045,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="9" spans="1:3" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="s">
         <v>226</v>
       </c>
@@ -2052,7 +2053,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="10" spans="1:3" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
         <v>227</v>
       </c>
@@ -2060,7 +2061,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="11" spans="1:3" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="7" t="s">
         <v>228</v>
       </c>
@@ -2068,7 +2069,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="12" spans="1:3" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="7" t="s">
         <v>229</v>
       </c>
@@ -2076,7 +2077,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="13" spans="1:3" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="s">
         <v>230</v>
       </c>
@@ -2084,7 +2085,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="14" spans="1:3" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="7" t="s">
         <v>231</v>
       </c>
@@ -2092,7 +2093,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="15" spans="1:3" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="7" t="s">
         <v>232</v>
       </c>
@@ -2100,7 +2101,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="16" spans="1:3" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="7" t="s">
         <v>233</v>
       </c>
@@ -2108,7 +2109,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="17" spans="1:2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="7" t="s">
         <v>234</v>
       </c>
@@ -2116,7 +2117,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="18" spans="1:2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="7" t="s">
         <v>235</v>
       </c>
@@ -2124,7 +2125,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="19" spans="1:2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="7" t="s">
         <v>236</v>
       </c>
@@ -2132,7 +2133,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="20" spans="1:2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="7" t="s">
         <v>237</v>
       </c>
@@ -2140,7 +2141,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="21" spans="1:2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="7" t="s">
         <v>238</v>
       </c>
@@ -2148,7 +2149,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="22" spans="1:2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="7" t="s">
         <v>239</v>
       </c>
@@ -2156,7 +2157,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="23" spans="1:2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="7" t="s">
         <v>240</v>
       </c>
@@ -2164,7 +2165,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="24" spans="1:2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="7" t="s">
         <v>241</v>
       </c>
@@ -2172,7 +2173,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="25" spans="1:2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="7" t="s">
         <v>242</v>
       </c>
@@ -2180,7 +2181,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="26" spans="1:2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="7" t="s">
         <v>243</v>
       </c>
@@ -2188,7 +2189,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="27" spans="1:2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="7" t="s">
         <v>244</v>
       </c>
@@ -2196,7 +2197,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="28" spans="1:2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="7" t="s">
         <v>245</v>
       </c>
@@ -2204,7 +2205,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="29" spans="1:2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="7" t="s">
         <v>246</v>
       </c>
@@ -2212,7 +2213,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="30" spans="1:2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="7" t="s">
         <v>247</v>
       </c>
@@ -2220,7 +2221,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="31" spans="1:2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="7" t="s">
         <v>248</v>
       </c>
@@ -2228,7 +2229,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="32" spans="1:2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="7" t="s">
         <v>249</v>
       </c>
@@ -2236,7 +2237,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="33" spans="1:2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="7" t="s">
         <v>250</v>
       </c>
@@ -2244,7 +2245,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="34" spans="1:2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="7" t="s">
         <v>251</v>
       </c>
@@ -2252,7 +2253,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="35" spans="1:2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="7" t="s">
         <v>252</v>
       </c>
@@ -2260,7 +2261,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="36" spans="1:2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="7" t="s">
         <v>253</v>
       </c>
@@ -2268,7 +2269,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="37" spans="1:2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="7" t="s">
         <v>254</v>
       </c>
@@ -2276,7 +2277,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="38" spans="1:2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="7" t="s">
         <v>255</v>
       </c>
@@ -2284,7 +2285,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="39" spans="1:2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="7" t="s">
         <v>256</v>
       </c>
@@ -2292,7 +2293,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="40" spans="1:2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="9" t="s">
         <v>257</v>
       </c>
@@ -2300,7 +2301,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="41" spans="1:2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="7" t="s">
         <v>258</v>
       </c>
@@ -2308,7 +2309,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="42" spans="1:2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="7" t="s">
         <v>259</v>
       </c>
@@ -2316,7 +2317,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="43" spans="1:2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="7" t="s">
         <v>260</v>
       </c>
@@ -2324,7 +2325,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="44" spans="1:2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="7" t="s">
         <v>261</v>
       </c>
@@ -2332,7 +2333,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="45" spans="1:2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="7" t="s">
         <v>262</v>
       </c>
@@ -2340,7 +2341,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="46" spans="1:2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="7" t="s">
         <v>263</v>
       </c>
@@ -2348,7 +2349,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="47" spans="1:2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="7" t="s">
         <v>264</v>
       </c>
@@ -2356,7 +2357,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="48" spans="1:2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="7" t="s">
         <v>265</v>
       </c>
@@ -2364,7 +2365,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="49" spans="1:2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="7" t="s">
         <v>266</v>
       </c>
@@ -2372,7 +2373,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="50" spans="1:2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="7" t="s">
         <v>267</v>
       </c>
@@ -2380,7 +2381,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="51" spans="1:2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="7" t="s">
         <v>268</v>
       </c>
@@ -2388,7 +2389,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="52" spans="1:2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="7" t="s">
         <v>269</v>
       </c>
@@ -2396,7 +2397,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="53" spans="1:2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="7" t="s">
         <v>270</v>
       </c>
@@ -2404,7 +2405,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="54" spans="1:2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="7" t="s">
         <v>271</v>
       </c>
@@ -2412,7 +2413,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="55" spans="1:2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="7" t="s">
         <v>272</v>
       </c>
@@ -2420,7 +2421,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="56" spans="1:2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56" s="7" t="s">
         <v>273</v>
       </c>
@@ -2428,7 +2429,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="57" spans="1:2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A57" s="7" t="s">
         <v>274</v>
       </c>
@@ -2436,7 +2437,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="58" spans="1:2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="7" t="s">
         <v>275</v>
       </c>
@@ -2444,7 +2445,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="59" spans="1:2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A59" s="7" t="s">
         <v>276</v>
       </c>
@@ -2452,7 +2453,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="60" spans="1:2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60" s="7" t="s">
         <v>277</v>
       </c>
@@ -2460,7 +2461,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="61" spans="1:2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A61" s="7" t="s">
         <v>130</v>
       </c>
@@ -2468,7 +2469,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="62" spans="1:2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A62" s="7" t="s">
         <v>278</v>
       </c>
@@ -2476,7 +2477,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="63" spans="1:2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A63" s="7" t="s">
         <v>279</v>
       </c>
@@ -2484,7 +2485,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="64" spans="1:2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A64" s="7" t="s">
         <v>280</v>
       </c>
@@ -2492,7 +2493,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="65" spans="1:2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A65" s="7" t="s">
         <v>281</v>
       </c>
@@ -2500,7 +2501,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="66" spans="1:2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A66" s="7" t="s">
         <v>282</v>
       </c>
@@ -2508,7 +2509,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="67" spans="1:2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A67" s="7" t="s">
         <v>283</v>
       </c>
@@ -2516,7 +2517,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="68" spans="1:2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A68" s="7" t="s">
         <v>284</v>
       </c>
@@ -2524,7 +2525,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="69" spans="1:2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A69" s="7" t="s">
         <v>285</v>
       </c>
@@ -2532,7 +2533,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="70" spans="1:2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A70" s="7" t="s">
         <v>285</v>
       </c>
@@ -2540,7 +2541,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="71" spans="1:2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A71" s="7" t="s">
         <v>286</v>
       </c>
@@ -2549,13 +2550,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B104"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C104"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C1" sqref="C1:D1048576"/>
@@ -2563,12 +2564,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.85546875" style="6" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="9.140625" style="3"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="3" width="29.85546875" collapsed="false"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="6" width="11.85546875" collapsed="false"/>
+    <col min="3" max="16384" style="3" width="9.140625" collapsed="false"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="6" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" ht="15.75" r="1" s="6" spans="1:2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>447</v>
       </c>
@@ -2576,7 +2577,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="2" spans="1:2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>287</v>
       </c>
@@ -2584,7 +2585,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="3" spans="1:2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
         <v>288</v>
       </c>
@@ -2592,7 +2593,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="4" spans="1:2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
         <v>289</v>
       </c>
@@ -2600,7 +2601,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="5" spans="1:2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
         <v>290</v>
       </c>
@@ -2608,7 +2609,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="6" spans="1:2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
         <v>291</v>
       </c>
@@ -2616,7 +2617,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="7" spans="1:2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
         <v>292</v>
       </c>
@@ -2624,7 +2625,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="8" spans="1:2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>293</v>
       </c>
@@ -2632,7 +2633,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="9" spans="1:2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="s">
         <v>294</v>
       </c>
@@ -2640,7 +2641,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="10" spans="1:2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
         <v>295</v>
       </c>
@@ -2648,7 +2649,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="11" spans="1:2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="7" t="s">
         <v>296</v>
       </c>
@@ -2656,7 +2657,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="12" spans="1:2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="7" t="s">
         <v>297</v>
       </c>
@@ -2664,7 +2665,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="13" spans="1:2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="s">
         <v>298</v>
       </c>
@@ -2672,7 +2673,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="14" spans="1:2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="7" t="s">
         <v>299</v>
       </c>
@@ -2680,7 +2681,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="15" spans="1:2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="7" t="s">
         <v>300</v>
       </c>
@@ -2688,7 +2689,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="16" spans="1:2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="7" t="s">
         <v>301</v>
       </c>
@@ -2696,7 +2697,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="17" spans="1:2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="7" t="s">
         <v>302</v>
       </c>
@@ -2704,7 +2705,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="18" spans="1:2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="7" t="s">
         <v>303</v>
       </c>
@@ -2712,7 +2713,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="19" spans="1:2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="7" t="s">
         <v>304</v>
       </c>
@@ -2720,7 +2721,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="20" spans="1:2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="7" t="s">
         <v>305</v>
       </c>
@@ -2728,7 +2729,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="21" spans="1:2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="7" t="s">
         <v>306</v>
       </c>
@@ -2736,7 +2737,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="22" spans="1:2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="7" t="s">
         <v>307</v>
       </c>
@@ -2744,7 +2745,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="23" spans="1:2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="7" t="s">
         <v>308</v>
       </c>
@@ -2752,7 +2753,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="24" spans="1:2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="7" t="s">
         <v>309</v>
       </c>
@@ -2760,7 +2761,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="25" spans="1:2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="7" t="s">
         <v>310</v>
       </c>
@@ -2768,7 +2769,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="26" spans="1:2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="7" t="s">
         <v>311</v>
       </c>
@@ -2776,7 +2777,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="27" spans="1:2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="7" t="s">
         <v>312</v>
       </c>
@@ -2784,7 +2785,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="28" spans="1:2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="7" t="s">
         <v>313</v>
       </c>
@@ -2792,7 +2793,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="29" spans="1:2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="7" t="s">
         <v>314</v>
       </c>
@@ -2800,7 +2801,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="30" spans="1:2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="7" t="s">
         <v>315</v>
       </c>
@@ -2808,7 +2809,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="31" spans="1:2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="7" t="s">
         <v>316</v>
       </c>
@@ -2816,7 +2817,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="32" spans="1:2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="7" t="s">
         <v>317</v>
       </c>
@@ -2824,7 +2825,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="33" spans="1:2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="7" t="s">
         <v>318</v>
       </c>
@@ -2832,7 +2833,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="34" spans="1:2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="7" t="s">
         <v>319</v>
       </c>
@@ -2840,7 +2841,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="35" spans="1:2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="7" t="s">
         <v>320</v>
       </c>
@@ -2848,7 +2849,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="36" spans="1:2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="7" t="s">
         <v>321</v>
       </c>
@@ -2856,7 +2857,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="37" spans="1:2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="7" t="s">
         <v>322</v>
       </c>
@@ -2864,7 +2865,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="38" spans="1:2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="7" t="s">
         <v>323</v>
       </c>
@@ -2872,7 +2873,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="39" spans="1:2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="7" t="s">
         <v>324</v>
       </c>
@@ -2880,7 +2881,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="40" spans="1:2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="7" t="s">
         <v>325</v>
       </c>
@@ -2888,7 +2889,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="41" spans="1:2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="7" t="s">
         <v>326</v>
       </c>
@@ -2896,7 +2897,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="42" spans="1:2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="7" t="s">
         <v>327</v>
       </c>
@@ -2904,7 +2905,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="43" spans="1:2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="7" t="s">
         <v>328</v>
       </c>
@@ -2912,7 +2913,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="44" spans="1:2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="7" t="s">
         <v>329</v>
       </c>
@@ -2920,7 +2921,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="45" spans="1:2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="7" t="s">
         <v>330</v>
       </c>
@@ -2928,7 +2929,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="46" spans="1:2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="7" t="s">
         <v>331</v>
       </c>
@@ -2936,7 +2937,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="47" spans="1:2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="7" t="s">
         <v>332</v>
       </c>
@@ -2944,7 +2945,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="48" spans="1:2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="7" t="s">
         <v>333</v>
       </c>
@@ -2952,7 +2953,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="49" spans="1:2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="7" t="s">
         <v>334</v>
       </c>
@@ -2960,7 +2961,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="50" spans="1:2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="7" t="s">
         <v>335</v>
       </c>
@@ -2968,7 +2969,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="51" spans="1:2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="7" t="s">
         <v>336</v>
       </c>
@@ -2976,7 +2977,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="52" spans="1:2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="7" t="s">
         <v>337</v>
       </c>
@@ -2984,7 +2985,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="53" spans="1:2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="7" t="s">
         <v>338</v>
       </c>
@@ -2992,7 +2993,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="54" spans="1:2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="7" t="s">
         <v>339</v>
       </c>
@@ -3000,7 +3001,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="55" spans="1:2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="7" t="s">
         <v>340</v>
       </c>
@@ -3008,7 +3009,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="56" spans="1:2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56" s="7" t="s">
         <v>341</v>
       </c>
@@ -3016,7 +3017,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="57" spans="1:2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A57" s="7" t="s">
         <v>342</v>
       </c>
@@ -3024,7 +3025,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="58" spans="1:2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="7" t="s">
         <v>343</v>
       </c>
@@ -3032,7 +3033,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="59" spans="1:2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A59" s="7" t="s">
         <v>344</v>
       </c>
@@ -3040,7 +3041,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="60" spans="1:2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60" s="7" t="s">
         <v>345</v>
       </c>
@@ -3048,7 +3049,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="61" spans="1:2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A61" s="7" t="s">
         <v>346</v>
       </c>
@@ -3056,7 +3057,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="62" spans="1:2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A62" s="7" t="s">
         <v>347</v>
       </c>
@@ -3064,7 +3065,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="63" spans="1:2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A63" s="7" t="s">
         <v>348</v>
       </c>
@@ -3072,7 +3073,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="64" spans="1:2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A64" s="9" t="s">
         <v>349</v>
       </c>
@@ -3080,7 +3081,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="65" spans="1:2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A65" s="7" t="s">
         <v>350</v>
       </c>
@@ -3088,7 +3089,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="66" spans="1:2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A66" s="7" t="s">
         <v>351</v>
       </c>
@@ -3096,7 +3097,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="67" spans="1:2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A67" s="7" t="s">
         <v>352</v>
       </c>
@@ -3104,7 +3105,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="68" spans="1:2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A68" s="7" t="s">
         <v>9</v>
       </c>
@@ -3112,7 +3113,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="69" spans="1:2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A69" s="7" t="s">
         <v>12</v>
       </c>
@@ -3120,7 +3121,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="70" spans="1:2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A70" s="7" t="s">
         <v>353</v>
       </c>
@@ -3128,7 +3129,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="71" spans="1:2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A71" s="7" t="s">
         <v>354</v>
       </c>
@@ -3136,7 +3137,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="72" spans="1:2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A72" s="7" t="s">
         <v>355</v>
       </c>
@@ -3144,7 +3145,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="73" spans="1:2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A73" s="7" t="s">
         <v>8</v>
       </c>
@@ -3152,7 +3153,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="74" spans="1:2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A74" s="7" t="s">
         <v>356</v>
       </c>
@@ -3160,7 +3161,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="75" spans="1:2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A75" s="7" t="s">
         <v>357</v>
       </c>
@@ -3168,7 +3169,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="76" spans="1:2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A76" s="7" t="s">
         <v>358</v>
       </c>
@@ -3176,7 +3177,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="77" spans="1:2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A77" s="7" t="s">
         <v>359</v>
       </c>
@@ -3184,7 +3185,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="78" spans="1:2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A78" s="7" t="s">
         <v>360</v>
       </c>
@@ -3192,7 +3193,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="79" spans="1:2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A79" s="7" t="s">
         <v>361</v>
       </c>
@@ -3200,7 +3201,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="80" spans="1:2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A80" s="7" t="s">
         <v>362</v>
       </c>
@@ -3208,7 +3209,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="81" spans="1:2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A81" s="7" t="s">
         <v>363</v>
       </c>
@@ -3216,7 +3217,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="82" spans="1:2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A82" s="7" t="s">
         <v>364</v>
       </c>
@@ -3224,7 +3225,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="83" spans="1:2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A83" s="7" t="s">
         <v>365</v>
       </c>
@@ -3232,7 +3233,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="84" spans="1:2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A84" s="7" t="s">
         <v>366</v>
       </c>
@@ -3240,7 +3241,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="85" spans="1:2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A85" s="7" t="s">
         <v>367</v>
       </c>
@@ -3248,7 +3249,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="86" spans="1:2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A86" s="7" t="s">
         <v>18</v>
       </c>
@@ -3256,7 +3257,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="87" spans="1:2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A87" s="7" t="s">
         <v>49</v>
       </c>
@@ -3264,7 +3265,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="88" spans="1:2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A88" s="7" t="s">
         <v>75</v>
       </c>
@@ -3272,7 +3273,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="89" spans="1:2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A89" s="7" t="s">
         <v>368</v>
       </c>
@@ -3280,7 +3281,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="90" spans="1:2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A90" s="7" t="s">
         <v>369</v>
       </c>
@@ -3288,7 +3289,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="91" spans="1:2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A91" s="7" t="s">
         <v>370</v>
       </c>
@@ -3296,7 +3297,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="92" spans="1:2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A92" s="7" t="s">
         <v>371</v>
       </c>
@@ -3304,7 +3305,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="93" spans="1:2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A93" s="7" t="s">
         <v>372</v>
       </c>
@@ -3312,7 +3313,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="94" spans="1:2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A94" s="7" t="s">
         <v>373</v>
       </c>
@@ -3320,7 +3321,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="95" spans="1:2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A95" s="7" t="s">
         <v>374</v>
       </c>
@@ -3328,7 +3329,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="96" spans="1:2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A96" s="7" t="s">
         <v>375</v>
       </c>
@@ -3336,7 +3337,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="97" spans="1:2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A97" s="7" t="s">
         <v>376</v>
       </c>
@@ -3344,7 +3345,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="98" spans="1:2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A98" s="7" t="s">
         <v>377</v>
       </c>
@@ -3352,7 +3353,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="99" spans="1:2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A99" s="7" t="s">
         <v>378</v>
       </c>
@@ -3360,7 +3361,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="100" spans="1:2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A100" s="7" t="s">
         <v>379</v>
       </c>
@@ -3368,7 +3369,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="101" spans="1:2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A101" s="7" t="s">
         <v>380</v>
       </c>
@@ -3376,7 +3377,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="102" spans="1:2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A102" s="7" t="s">
         <v>381</v>
       </c>
@@ -3384,7 +3385,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="103" spans="1:2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A103" s="7" t="s">
         <v>382</v>
       </c>
@@ -3392,7 +3393,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="104" spans="1:2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A104" s="7" t="s">
         <v>383</v>
       </c>
@@ -3401,14 +3402,14 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B27"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C1" sqref="C1"/>
@@ -3633,22 +3634,22 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C49"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D49"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B2" sqref="B2:B49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="25.85546875" collapsed="false"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="7.5703125" collapsed="false"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -3744,8 +3745,8 @@
       <c r="A11" t="s">
         <v>130</v>
       </c>
-      <c r="B11">
-        <v>0</v>
+      <c r="B11" t="n">
+        <v>1.0</v>
       </c>
       <c r="C11" s="2"/>
     </row>
@@ -3762,8 +3763,8 @@
       <c r="A13" t="s">
         <v>415</v>
       </c>
-      <c r="B13">
-        <v>0</v>
+      <c r="B13" t="n">
+        <v>1.0</v>
       </c>
       <c r="C13" s="2"/>
     </row>
@@ -3771,8 +3772,8 @@
       <c r="A14" t="s">
         <v>416</v>
       </c>
-      <c r="B14">
-        <v>0</v>
+      <c r="B14" t="n">
+        <v>1.0</v>
       </c>
       <c r="C14" s="2"/>
     </row>
@@ -3780,8 +3781,8 @@
       <c r="A15" t="s">
         <v>417</v>
       </c>
-      <c r="B15">
-        <v>0</v>
+      <c r="B15" t="n">
+        <v>1.0</v>
       </c>
       <c r="C15" s="2"/>
     </row>
@@ -3798,8 +3799,8 @@
       <c r="A17" t="s">
         <v>418</v>
       </c>
-      <c r="B17">
-        <v>0</v>
+      <c r="B17" t="n">
+        <v>1.0</v>
       </c>
       <c r="C17" s="2"/>
     </row>
@@ -3807,8 +3808,8 @@
       <c r="A18" t="s">
         <v>419</v>
       </c>
-      <c r="B18">
-        <v>0</v>
+      <c r="B18" t="n">
+        <v>1.0</v>
       </c>
       <c r="C18" s="2"/>
     </row>
@@ -3816,8 +3817,8 @@
       <c r="A19" t="s">
         <v>420</v>
       </c>
-      <c r="B19">
-        <v>0</v>
+      <c r="B19" t="n">
+        <v>1.0</v>
       </c>
       <c r="C19" s="2"/>
     </row>
@@ -4092,13 +4093,13 @@
       <c r="C49" s="2"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:B1"/>
@@ -4106,7 +4107,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="21.140625" collapsed="false"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -4281,12 +4282,222 @@
   <sortState ref="A2:D21">
     <sortCondition ref="A2:A21"/>
   </sortState>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:D1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="3" width="20.140625" collapsed="false"/>
+    <col min="2" max="2" customWidth="true" style="3" width="20.140625" collapsed="false"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" style="3" width="10.28515625" collapsed="false"/>
+    <col min="4" max="16384" style="3" width="9.140625" collapsed="false"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>447</v>
+      </c>
+      <c r="B1" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B2" s="4">
+        <v>0</v>
+      </c>
+      <c r="C2" s="4"/>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B3" s="4">
+        <v>0</v>
+      </c>
+      <c r="C3" s="4"/>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B4" s="4">
+        <v>0</v>
+      </c>
+      <c r="C4" s="4"/>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B5" s="4">
+        <v>0</v>
+      </c>
+      <c r="C5" s="4"/>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B6" s="4">
+        <v>0</v>
+      </c>
+      <c r="C6" s="4"/>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B7" s="4">
+        <v>0</v>
+      </c>
+      <c r="C7" s="4"/>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B8" s="4">
+        <v>0</v>
+      </c>
+      <c r="C8" s="4"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B9" s="4">
+        <v>0</v>
+      </c>
+      <c r="C9" s="4"/>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B10" s="4">
+        <v>0</v>
+      </c>
+      <c r="C10" s="4"/>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B11" s="4">
+        <v>0</v>
+      </c>
+      <c r="C11" s="4"/>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B12" s="4">
+        <v>0</v>
+      </c>
+      <c r="C12" s="4"/>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B13" s="4">
+        <v>0</v>
+      </c>
+      <c r="C13" s="4"/>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B14" s="4">
+        <v>0</v>
+      </c>
+      <c r="C14" s="4"/>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B15" s="4">
+        <v>0</v>
+      </c>
+      <c r="C15" s="4"/>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B16" s="4">
+        <v>0</v>
+      </c>
+      <c r="C16" s="4"/>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B17" s="4">
+        <v>0</v>
+      </c>
+      <c r="C17" s="4"/>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B18" s="4">
+        <v>0</v>
+      </c>
+      <c r="C18" s="4"/>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B19" s="4">
+        <v>0</v>
+      </c>
+      <c r="C19" s="4"/>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B20" s="4">
+        <v>0</v>
+      </c>
+      <c r="C20" s="4"/>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B21" s="4">
+        <v>0</v>
+      </c>
+      <c r="C21" s="4"/>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4295,13 +4506,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.140625" style="3" customWidth="1"/>
-    <col min="3" max="3" width="10.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="3"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="3" width="22.42578125" collapsed="false"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="3" width="9.42578125" collapsed="false"/>
+    <col min="3" max="16384" style="3" width="9.140625" collapsed="false"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>447</v>
       </c>
@@ -4309,195 +4519,700 @@
         <v>448</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>39</v>
+        <v>58</v>
       </c>
       <c r="B2" s="4">
         <v>0</v>
       </c>
-      <c r="C2" s="4"/>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>40</v>
+        <v>59</v>
       </c>
       <c r="B3" s="4">
         <v>0</v>
       </c>
-      <c r="C3" s="4"/>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>41</v>
+        <v>60</v>
       </c>
       <c r="B4" s="4">
         <v>0</v>
       </c>
-      <c r="C4" s="4"/>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>42</v>
+        <v>61</v>
       </c>
       <c r="B5" s="4">
         <v>0</v>
       </c>
-      <c r="C5" s="4"/>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>43</v>
+        <v>62</v>
       </c>
       <c r="B6" s="4">
         <v>0</v>
       </c>
-      <c r="C6" s="4"/>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>44</v>
+        <v>63</v>
       </c>
       <c r="B7" s="4">
         <v>0</v>
       </c>
-      <c r="C7" s="4"/>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>45</v>
+        <v>64</v>
       </c>
       <c r="B8" s="4">
         <v>0</v>
       </c>
-      <c r="C8" s="4"/>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>46</v>
+        <v>65</v>
       </c>
       <c r="B9" s="4">
         <v>0</v>
       </c>
-      <c r="C9" s="4"/>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>47</v>
+        <v>66</v>
       </c>
       <c r="B10" s="4">
         <v>0</v>
       </c>
-      <c r="C10" s="4"/>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>48</v>
+        <v>67</v>
       </c>
       <c r="B11" s="4">
         <v>0</v>
       </c>
-      <c r="C11" s="4"/>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>49</v>
+        <v>68</v>
       </c>
       <c r="B12" s="4">
         <v>0</v>
       </c>
-      <c r="C12" s="4"/>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>50</v>
+        <v>69</v>
       </c>
       <c r="B13" s="4">
         <v>0</v>
       </c>
-      <c r="C13" s="4"/>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>51</v>
+        <v>70</v>
       </c>
       <c r="B14" s="4">
         <v>0</v>
       </c>
-      <c r="C14" s="4"/>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>52</v>
+        <v>71</v>
       </c>
       <c r="B15" s="4">
         <v>0</v>
       </c>
-      <c r="C15" s="4"/>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>53</v>
+        <v>72</v>
       </c>
       <c r="B16" s="4">
         <v>0</v>
       </c>
-      <c r="C16" s="4"/>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>54</v>
+        <v>73</v>
       </c>
       <c r="B17" s="4">
         <v>0</v>
       </c>
-      <c r="C17" s="4"/>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>18</v>
+        <v>74</v>
       </c>
       <c r="B18" s="4">
         <v>0</v>
       </c>
-      <c r="C18" s="4"/>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>55</v>
+        <v>75</v>
       </c>
       <c r="B19" s="4">
         <v>0</v>
       </c>
-      <c r="C19" s="4"/>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>56</v>
+        <v>76</v>
       </c>
       <c r="B20" s="4">
         <v>0</v>
       </c>
-      <c r="C20" s="4"/>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>57</v>
+        <v>77</v>
       </c>
       <c r="B21" s="4">
         <v>0</v>
       </c>
-      <c r="C21" s="4"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B21"/>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="3" width="20.7109375" collapsed="false"/>
+    <col min="2" max="16384" style="3" width="9.140625" collapsed="false"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>447</v>
+      </c>
+      <c r="B1" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="B2" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="B3" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B4" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="B5" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B6" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="B7" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B8" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="B9" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="B10" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="B11" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="B12" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="B13" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="B14" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B15" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="B16" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="B17" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="B18" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="B19" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="B20" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B21" s="4">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C40"/>
+  <sheetViews>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="3" width="30.42578125" collapsed="false"/>
+    <col min="2" max="16384" style="3" width="9.140625" collapsed="false"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>447</v>
+      </c>
+      <c r="B1" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="B2" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="B3" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="B4" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="B5" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="B6" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="B7" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="B8" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="B9" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="B10" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="B11" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="B12" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="B13" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="B14" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="B15" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="B16" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="B17" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="B18" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="B19" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="B20" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="B21" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="B22" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="B23" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="B24" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="B25" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="B26" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="B27" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="B28" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="B29" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="B30" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="B31" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="B32" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="B33" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="B34" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="B35" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="B36" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="B37" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="B38" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="B39" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="B40" s="4">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C1" sqref="C1:D1048576"/>
@@ -4505,9 +5220,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="9.140625" style="3"/>
+    <col min="1" max="16384" style="3" width="9.140625" collapsed="false"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -4520,718 +5233,6 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="B2" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="B3" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="B4" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="B5" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="B6" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="B7" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="B8" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="B9" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="B10" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="B11" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="B12" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="B13" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="B14" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="B15" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="B16" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="B17" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="B18" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="B19" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="B20" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="B21" s="4">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B21"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="20.7109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="16384" width="9.140625" style="3"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>447</v>
-      </c>
-      <c r="B1" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="B2" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="B3" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="B4" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="B5" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="B6" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="B7" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="B8" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="B9" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="B10" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="B11" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="B12" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="B13" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="B14" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="B15" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="B16" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="B17" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="B18" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="B19" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="B20" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B21" s="4">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B40"/>
-  <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="30.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="16384" width="9.140625" style="3"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>447</v>
-      </c>
-      <c r="B1" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="B2" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="B3" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="B4" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="B5" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="B6" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="B7" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="B8" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="B9" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="B10" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="B11" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="B12" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="B13" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="B14" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="B15" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="B16" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="B17" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="B18" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="B19" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="B20" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="B21" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="B22" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="B23" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="B24" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="B25" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="B26" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="B27" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="B28" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="B29" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="B30" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="B31" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="B32" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="B33" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="B34" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="B35" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="B36" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="B37" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="B38" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="B39" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A40" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="B40" s="4">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B21"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:D1048576"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="16384" width="9.140625" style="3"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>447</v>
-      </c>
-      <c r="B1" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
         <v>135</v>
       </c>
       <c r="B2" s="4">
@@ -5391,13 +5392,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B18"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2:B18"/>
@@ -5405,8 +5406,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="16384" width="9.140625" style="3"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="3" width="28.0" collapsed="false"/>
+    <col min="2" max="16384" style="3" width="9.140625" collapsed="false"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -5554,13 +5555,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B50"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
@@ -5568,12 +5569,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="32.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="9.140625" style="3"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="3" width="32.28515625" collapsed="false"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="5" width="11.85546875" collapsed="false"/>
+    <col min="3" max="16384" style="3" width="9.140625" collapsed="false"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="1" spans="1:2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>447</v>
       </c>
@@ -5581,7 +5582,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="2" spans="1:2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>172</v>
       </c>
@@ -5589,7 +5590,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="3" spans="1:2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
         <v>173</v>
       </c>
@@ -5597,7 +5598,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="4" spans="1:2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
         <v>174</v>
       </c>
@@ -5605,7 +5606,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="5" spans="1:2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
         <v>175</v>
       </c>
@@ -5613,7 +5614,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="6" spans="1:2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
         <v>176</v>
       </c>
@@ -5621,7 +5622,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="7" spans="1:2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
         <v>177</v>
       </c>
@@ -5629,7 +5630,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="8" spans="1:2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>1</v>
       </c>
@@ -5637,7 +5638,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="9" spans="1:2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="s">
         <v>178</v>
       </c>
@@ -5645,7 +5646,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="10" spans="1:2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
         <v>179</v>
       </c>
@@ -5653,7 +5654,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="11" spans="1:2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="7" t="s">
         <v>180</v>
       </c>
@@ -5661,7 +5662,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="12" spans="1:2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="7" t="s">
         <v>181</v>
       </c>
@@ -5669,7 +5670,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="13" spans="1:2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="s">
         <v>182</v>
       </c>
@@ -5677,7 +5678,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="14" spans="1:2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="7" t="s">
         <v>183</v>
       </c>
@@ -5685,7 +5686,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="15" spans="1:2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="7" t="s">
         <v>184</v>
       </c>
@@ -5693,7 +5694,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="16" spans="1:2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="7" t="s">
         <v>185</v>
       </c>
@@ -5701,7 +5702,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="17" spans="1:2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="7" t="s">
         <v>186</v>
       </c>
@@ -5709,7 +5710,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="18" spans="1:2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="7" t="s">
         <v>187</v>
       </c>
@@ -5717,7 +5718,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="19" spans="1:2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="7" t="s">
         <v>188</v>
       </c>
@@ -5725,7 +5726,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="20" spans="1:2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="9" t="s">
         <v>189</v>
       </c>
@@ -5733,7 +5734,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="21" spans="1:2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="7" t="s">
         <v>190</v>
       </c>
@@ -5741,7 +5742,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="22" spans="1:2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="7" t="s">
         <v>191</v>
       </c>
@@ -5749,7 +5750,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="23" spans="1:2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="7" t="s">
         <v>192</v>
       </c>
@@ -5757,7 +5758,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="24" spans="1:2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="7" t="s">
         <v>193</v>
       </c>
@@ -5765,7 +5766,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="25" spans="1:2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="7" t="s">
         <v>194</v>
       </c>
@@ -5773,7 +5774,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="26" spans="1:2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="7" t="s">
         <v>195</v>
       </c>
@@ -5781,7 +5782,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="27" spans="1:2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="7" t="s">
         <v>196</v>
       </c>
@@ -5789,7 +5790,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="28" spans="1:2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="7" t="s">
         <v>197</v>
       </c>
@@ -5797,7 +5798,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="29" spans="1:2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="7" t="s">
         <v>198</v>
       </c>
@@ -5805,7 +5806,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="30" spans="1:2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="7" t="s">
         <v>199</v>
       </c>
@@ -5813,7 +5814,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="31" spans="1:2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="7" t="s">
         <v>200</v>
       </c>
@@ -5821,7 +5822,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="32" spans="1:2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="7" t="s">
         <v>201</v>
       </c>
@@ -5829,7 +5830,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="33" spans="1:2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="7" t="s">
         <v>202</v>
       </c>
@@ -5837,7 +5838,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="34" spans="1:2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="7" t="s">
         <v>203</v>
       </c>
@@ -5845,7 +5846,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="35" spans="1:2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="7" t="s">
         <v>204</v>
       </c>
@@ -5853,7 +5854,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="36" spans="1:2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="7" t="s">
         <v>205</v>
       </c>
@@ -5861,7 +5862,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="37" spans="1:2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="7" t="s">
         <v>206</v>
       </c>
@@ -5869,7 +5870,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="38" spans="1:2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="7" t="s">
         <v>207</v>
       </c>
@@ -5877,7 +5878,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="39" spans="1:2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="7" t="s">
         <v>208</v>
       </c>
@@ -5885,7 +5886,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="40" spans="1:2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="7" t="s">
         <v>209</v>
       </c>
@@ -5893,7 +5894,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="41" spans="1:2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="7" t="s">
         <v>210</v>
       </c>
@@ -5901,7 +5902,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="42" spans="1:2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="7" t="s">
         <v>211</v>
       </c>
@@ -5909,7 +5910,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="43" spans="1:2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="7" t="s">
         <v>212</v>
       </c>
@@ -5917,7 +5918,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="44" spans="1:2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="7" t="s">
         <v>213</v>
       </c>
@@ -5925,7 +5926,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="45" spans="1:2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="7" t="s">
         <v>2</v>
       </c>
@@ -5933,7 +5934,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="46" spans="1:2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="7" t="s">
         <v>214</v>
       </c>
@@ -5941,7 +5942,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="47" spans="1:2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="7" t="s">
         <v>215</v>
       </c>
@@ -5949,7 +5950,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="48" spans="1:2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="7" t="s">
         <v>216</v>
       </c>
@@ -5957,7 +5958,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="49" spans="1:2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="7" t="s">
         <v>217</v>
       </c>
@@ -5965,7 +5966,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="50" spans="1:2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="7" t="s">
         <v>218</v>
       </c>
@@ -5974,7 +5975,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/src/data/dataRekapPesanan.xlsx
+++ b/src/data/dataRekapPesanan.xlsx
@@ -1,34 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
+    <workbookView windowHeight="7755" windowWidth="20490" xWindow="0" yWindow="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Oto Bento" sheetId="1" r:id="rId1"/>
-    <sheet name="Ootoya" sheetId="2" r:id="rId2"/>
-    <sheet name="Arasseo" sheetId="3" r:id="rId3"/>
-    <sheet name="Kyochon" sheetId="4" r:id="rId4"/>
-    <sheet name="Han Gang" sheetId="5" r:id="rId5"/>
-    <sheet name="PHD" sheetId="6" r:id="rId6"/>
-    <sheet name="Delicio" sheetId="7" r:id="rId7"/>
-    <sheet name="Bodega" sheetId="8" r:id="rId8"/>
-    <sheet name="Aciap" sheetId="9" r:id="rId9"/>
-    <sheet name="Kacamata" sheetId="10" r:id="rId10"/>
-    <sheet name="Mangkok Putih" sheetId="11" r:id="rId11"/>
-    <sheet name="Ayam Bakar Ganthari" sheetId="12" r:id="rId12"/>
-    <sheet name="Ayam Betutu Ibu Putu" sheetId="13" r:id="rId13"/>
+    <sheet name="Oto Bento" r:id="rId1" sheetId="1"/>
+    <sheet name="Ootoya" r:id="rId2" sheetId="2"/>
+    <sheet name="Arasseo" r:id="rId3" sheetId="3"/>
+    <sheet name="Kyochon" r:id="rId4" sheetId="4"/>
+    <sheet name="Han Gang" r:id="rId5" sheetId="5"/>
+    <sheet name="PHD" r:id="rId6" sheetId="6"/>
+    <sheet name="Delicio" r:id="rId7" sheetId="7"/>
+    <sheet name="Bodega" r:id="rId8" sheetId="8"/>
+    <sheet name="Aciap" r:id="rId9" sheetId="9"/>
+    <sheet name="Kacamata" r:id="rId10" sheetId="10"/>
+    <sheet name="Mangkok Putih" r:id="rId11" sheetId="11"/>
+    <sheet name="Ayam Bakar Ganthari" r:id="rId12" sheetId="12"/>
+    <sheet name="Ayam Betutu Ibu Putu" r:id="rId13" sheetId="13"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -1389,6 +1389,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="0"/>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1451,33 +1452,33 @@
     </border>
   </borders>
   <cellStyleXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="10">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="3" xfId="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="3" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="1"/>
+    <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="1" numFmtId="1" xfId="1"/>
+    <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="1" numFmtId="2" xfId="1"/>
+    <xf applyFont="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="1"/>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="2" numFmtId="1" xfId="1"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="2" fontId="2" numFmtId="0" xfId="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
     <cellStyle name="Normal 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1494,10 +1495,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -1532,7 +1533,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin panose="020F0302020204030204" typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1567,7 +1568,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1661,21 +1662,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -1692,7 +1693,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -1744,15 +1745,15 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" name="Office Theme" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C9" sqref="C9"/>
@@ -1760,8 +1761,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="20.5703125" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="9.42578125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -1959,14 +1960,14 @@
     <sortCondition ref="C2:C21"/>
     <sortCondition ref="A2:A21"/>
   </sortState>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="portrait" paperSize="9" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C71"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D71"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C1" sqref="C1"/>
@@ -1974,12 +1975,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="31.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="9.140625" style="3"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="3" width="31.42578125" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="3" width="11.85546875" collapsed="true"/>
+    <col min="3" max="16384" style="3" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="1" spans="1:3" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>447</v>
       </c>
@@ -1988,7 +1989,7 @@
       </c>
       <c r="C1" s="6"/>
     </row>
-    <row r="2" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="2" spans="1:3" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>219</v>
       </c>
@@ -1996,7 +1997,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="3" spans="1:3" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
         <v>220</v>
       </c>
@@ -2004,7 +2005,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="4" spans="1:3" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
         <v>221</v>
       </c>
@@ -2012,31 +2013,31 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="5" spans="1:3" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
         <v>222</v>
       </c>
-      <c r="B5" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="8" t="n">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row ht="15.75" r="6" spans="1:3" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
         <v>223</v>
       </c>
-      <c r="B6" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="8" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row ht="15.75" r="7" spans="1:3" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
         <v>224</v>
       </c>
-      <c r="B7" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="8" t="n">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row ht="15.75" r="8" spans="1:3" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>225</v>
       </c>
@@ -2044,7 +2045,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="9" spans="1:3" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="s">
         <v>226</v>
       </c>
@@ -2052,7 +2053,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="10" spans="1:3" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
         <v>227</v>
       </c>
@@ -2060,7 +2061,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="11" spans="1:3" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="7" t="s">
         <v>228</v>
       </c>
@@ -2068,7 +2069,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="12" spans="1:3" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="7" t="s">
         <v>229</v>
       </c>
@@ -2076,15 +2077,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="13" spans="1:3" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="s">
         <v>230</v>
       </c>
-      <c r="B13" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="8" t="n">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row ht="15.75" r="14" spans="1:3" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="7" t="s">
         <v>231</v>
       </c>
@@ -2092,7 +2093,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="15" spans="1:3" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="7" t="s">
         <v>232</v>
       </c>
@@ -2100,7 +2101,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="16" spans="1:3" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="7" t="s">
         <v>233</v>
       </c>
@@ -2108,7 +2109,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="17" spans="1:2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="7" t="s">
         <v>234</v>
       </c>
@@ -2116,7 +2117,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="18" spans="1:2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="7" t="s">
         <v>235</v>
       </c>
@@ -2124,7 +2125,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="19" spans="1:2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="7" t="s">
         <v>236</v>
       </c>
@@ -2132,7 +2133,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="20" spans="1:2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="7" t="s">
         <v>237</v>
       </c>
@@ -2140,7 +2141,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="21" spans="1:2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="7" t="s">
         <v>238</v>
       </c>
@@ -2148,7 +2149,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="22" spans="1:2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="7" t="s">
         <v>239</v>
       </c>
@@ -2156,47 +2157,47 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="23" spans="1:2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="7" t="s">
         <v>240</v>
       </c>
-      <c r="B23" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B23" s="8" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row ht="15.75" r="24" spans="1:2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="7" t="s">
         <v>241</v>
       </c>
-      <c r="B24" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B24" s="8" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row ht="15.75" r="25" spans="1:2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="7" t="s">
         <v>242</v>
       </c>
-      <c r="B25" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B25" s="8" t="n">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row ht="15.75" r="26" spans="1:2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="7" t="s">
         <v>243</v>
       </c>
-      <c r="B26" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B26" s="8" t="n">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row ht="15.75" r="27" spans="1:2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="7" t="s">
         <v>244</v>
       </c>
-      <c r="B27" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B27" s="8" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row ht="15.75" r="28" spans="1:2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="7" t="s">
         <v>245</v>
       </c>
@@ -2204,7 +2205,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="29" spans="1:2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="7" t="s">
         <v>246</v>
       </c>
@@ -2212,7 +2213,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="30" spans="1:2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="7" t="s">
         <v>247</v>
       </c>
@@ -2220,7 +2221,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="31" spans="1:2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="7" t="s">
         <v>248</v>
       </c>
@@ -2228,7 +2229,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="32" spans="1:2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="7" t="s">
         <v>249</v>
       </c>
@@ -2236,7 +2237,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="33" spans="1:2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="7" t="s">
         <v>250</v>
       </c>
@@ -2244,7 +2245,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="34" spans="1:2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="7" t="s">
         <v>251</v>
       </c>
@@ -2252,7 +2253,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="35" spans="1:2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="7" t="s">
         <v>252</v>
       </c>
@@ -2260,7 +2261,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="36" spans="1:2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="7" t="s">
         <v>253</v>
       </c>
@@ -2268,7 +2269,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="37" spans="1:2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="7" t="s">
         <v>254</v>
       </c>
@@ -2276,7 +2277,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="38" spans="1:2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="7" t="s">
         <v>255</v>
       </c>
@@ -2284,7 +2285,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="39" spans="1:2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="7" t="s">
         <v>256</v>
       </c>
@@ -2292,7 +2293,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="40" spans="1:2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="9" t="s">
         <v>257</v>
       </c>
@@ -2300,7 +2301,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="41" spans="1:2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="7" t="s">
         <v>258</v>
       </c>
@@ -2308,7 +2309,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="42" spans="1:2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="7" t="s">
         <v>259</v>
       </c>
@@ -2316,7 +2317,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="43" spans="1:2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="7" t="s">
         <v>260</v>
       </c>
@@ -2324,7 +2325,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="44" spans="1:2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="7" t="s">
         <v>261</v>
       </c>
@@ -2332,7 +2333,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="45" spans="1:2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="7" t="s">
         <v>262</v>
       </c>
@@ -2340,7 +2341,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="46" spans="1:2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="7" t="s">
         <v>263</v>
       </c>
@@ -2348,7 +2349,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="47" spans="1:2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="7" t="s">
         <v>264</v>
       </c>
@@ -2356,7 +2357,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="48" spans="1:2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="7" t="s">
         <v>265</v>
       </c>
@@ -2364,7 +2365,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="49" spans="1:2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="7" t="s">
         <v>266</v>
       </c>
@@ -2372,7 +2373,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="50" spans="1:2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="7" t="s">
         <v>267</v>
       </c>
@@ -2380,7 +2381,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="51" spans="1:2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="7" t="s">
         <v>268</v>
       </c>
@@ -2388,7 +2389,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="52" spans="1:2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="7" t="s">
         <v>269</v>
       </c>
@@ -2396,15 +2397,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="53" spans="1:2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="7" t="s">
         <v>270</v>
       </c>
-      <c r="B53" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B53" s="8" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row ht="15.75" r="54" spans="1:2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="7" t="s">
         <v>271</v>
       </c>
@@ -2412,7 +2413,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="55" spans="1:2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="7" t="s">
         <v>272</v>
       </c>
@@ -2420,7 +2421,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="56" spans="1:2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56" s="7" t="s">
         <v>273</v>
       </c>
@@ -2428,15 +2429,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="57" spans="1:2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A57" s="7" t="s">
         <v>274</v>
       </c>
-      <c r="B57" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B57" s="8" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row ht="15.75" r="58" spans="1:2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="7" t="s">
         <v>275</v>
       </c>
@@ -2444,7 +2445,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="59" spans="1:2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A59" s="7" t="s">
         <v>276</v>
       </c>
@@ -2452,7 +2453,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="60" spans="1:2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60" s="7" t="s">
         <v>277</v>
       </c>
@@ -2460,15 +2461,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="61" spans="1:2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A61" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="B61" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B61" s="8" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row ht="15.75" r="62" spans="1:2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A62" s="7" t="s">
         <v>278</v>
       </c>
@@ -2476,7 +2477,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="63" spans="1:2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A63" s="7" t="s">
         <v>279</v>
       </c>
@@ -2484,7 +2485,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="64" spans="1:2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A64" s="7" t="s">
         <v>280</v>
       </c>
@@ -2492,15 +2493,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="65" spans="1:2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A65" s="7" t="s">
         <v>281</v>
       </c>
-      <c r="B65" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B65" s="8" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row ht="15.75" r="66" spans="1:2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A66" s="7" t="s">
         <v>282</v>
       </c>
@@ -2508,7 +2509,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="67" spans="1:2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A67" s="7" t="s">
         <v>283</v>
       </c>
@@ -2516,7 +2517,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="68" spans="1:2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A68" s="7" t="s">
         <v>284</v>
       </c>
@@ -2524,7 +2525,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="69" spans="1:2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A69" s="7" t="s">
         <v>285</v>
       </c>
@@ -2532,7 +2533,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="70" spans="1:2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A70" s="7" t="s">
         <v>285</v>
       </c>
@@ -2540,7 +2541,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="71" spans="1:2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A71" s="7" t="s">
         <v>286</v>
       </c>
@@ -2549,13 +2550,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B104"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C104"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C1" sqref="C1:D1048576"/>
@@ -2563,12 +2564,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.85546875" style="6" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="9.140625" style="3"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="3" width="29.85546875" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="6" width="11.85546875" collapsed="true"/>
+    <col min="3" max="16384" style="3" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="6" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" ht="15.75" r="1" s="6" spans="1:2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>447</v>
       </c>
@@ -2576,7 +2577,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="2" spans="1:2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>287</v>
       </c>
@@ -2584,7 +2585,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="3" spans="1:2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
         <v>288</v>
       </c>
@@ -2592,7 +2593,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="4" spans="1:2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
         <v>289</v>
       </c>
@@ -2600,7 +2601,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="5" spans="1:2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
         <v>290</v>
       </c>
@@ -2608,7 +2609,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="6" spans="1:2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
         <v>291</v>
       </c>
@@ -2616,7 +2617,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="7" spans="1:2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
         <v>292</v>
       </c>
@@ -2624,7 +2625,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="8" spans="1:2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>293</v>
       </c>
@@ -2632,7 +2633,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="9" spans="1:2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="s">
         <v>294</v>
       </c>
@@ -2640,7 +2641,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="10" spans="1:2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
         <v>295</v>
       </c>
@@ -2648,7 +2649,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="11" spans="1:2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="7" t="s">
         <v>296</v>
       </c>
@@ -2656,7 +2657,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="12" spans="1:2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="7" t="s">
         <v>297</v>
       </c>
@@ -2664,7 +2665,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="13" spans="1:2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="s">
         <v>298</v>
       </c>
@@ -2672,7 +2673,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="14" spans="1:2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="7" t="s">
         <v>299</v>
       </c>
@@ -2680,7 +2681,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="15" spans="1:2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="7" t="s">
         <v>300</v>
       </c>
@@ -2688,7 +2689,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="16" spans="1:2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="7" t="s">
         <v>301</v>
       </c>
@@ -2696,7 +2697,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="17" spans="1:2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="7" t="s">
         <v>302</v>
       </c>
@@ -2704,7 +2705,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="18" spans="1:2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="7" t="s">
         <v>303</v>
       </c>
@@ -2712,7 +2713,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="19" spans="1:2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="7" t="s">
         <v>304</v>
       </c>
@@ -2720,7 +2721,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="20" spans="1:2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="7" t="s">
         <v>305</v>
       </c>
@@ -2728,7 +2729,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="21" spans="1:2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="7" t="s">
         <v>306</v>
       </c>
@@ -2736,7 +2737,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="22" spans="1:2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="7" t="s">
         <v>307</v>
       </c>
@@ -2744,7 +2745,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="23" spans="1:2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="7" t="s">
         <v>308</v>
       </c>
@@ -2752,7 +2753,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="24" spans="1:2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="7" t="s">
         <v>309</v>
       </c>
@@ -2760,7 +2761,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="25" spans="1:2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="7" t="s">
         <v>310</v>
       </c>
@@ -2768,7 +2769,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="26" spans="1:2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="7" t="s">
         <v>311</v>
       </c>
@@ -2776,7 +2777,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="27" spans="1:2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="7" t="s">
         <v>312</v>
       </c>
@@ -2784,7 +2785,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="28" spans="1:2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="7" t="s">
         <v>313</v>
       </c>
@@ -2792,7 +2793,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="29" spans="1:2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="7" t="s">
         <v>314</v>
       </c>
@@ -2800,7 +2801,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="30" spans="1:2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="7" t="s">
         <v>315</v>
       </c>
@@ -2808,7 +2809,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="31" spans="1:2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="7" t="s">
         <v>316</v>
       </c>
@@ -2816,7 +2817,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="32" spans="1:2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="7" t="s">
         <v>317</v>
       </c>
@@ -2824,7 +2825,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="33" spans="1:2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="7" t="s">
         <v>318</v>
       </c>
@@ -2832,7 +2833,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="34" spans="1:2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="7" t="s">
         <v>319</v>
       </c>
@@ -2840,7 +2841,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="35" spans="1:2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="7" t="s">
         <v>320</v>
       </c>
@@ -2848,7 +2849,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="36" spans="1:2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="7" t="s">
         <v>321</v>
       </c>
@@ -2856,7 +2857,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="37" spans="1:2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="7" t="s">
         <v>322</v>
       </c>
@@ -2864,7 +2865,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="38" spans="1:2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="7" t="s">
         <v>323</v>
       </c>
@@ -2872,7 +2873,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="39" spans="1:2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="7" t="s">
         <v>324</v>
       </c>
@@ -2880,7 +2881,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="40" spans="1:2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="7" t="s">
         <v>325</v>
       </c>
@@ -2888,7 +2889,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="41" spans="1:2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="7" t="s">
         <v>326</v>
       </c>
@@ -2896,7 +2897,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="42" spans="1:2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="7" t="s">
         <v>327</v>
       </c>
@@ -2904,7 +2905,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="43" spans="1:2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="7" t="s">
         <v>328</v>
       </c>
@@ -2912,7 +2913,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="44" spans="1:2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="7" t="s">
         <v>329</v>
       </c>
@@ -2920,7 +2921,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="45" spans="1:2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="7" t="s">
         <v>330</v>
       </c>
@@ -2928,7 +2929,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="46" spans="1:2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="7" t="s">
         <v>331</v>
       </c>
@@ -2936,7 +2937,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="47" spans="1:2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="7" t="s">
         <v>332</v>
       </c>
@@ -2944,7 +2945,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="48" spans="1:2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="7" t="s">
         <v>333</v>
       </c>
@@ -2952,7 +2953,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="49" spans="1:2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="7" t="s">
         <v>334</v>
       </c>
@@ -2960,7 +2961,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="50" spans="1:2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="7" t="s">
         <v>335</v>
       </c>
@@ -2968,7 +2969,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="51" spans="1:2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="7" t="s">
         <v>336</v>
       </c>
@@ -2976,7 +2977,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="52" spans="1:2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="7" t="s">
         <v>337</v>
       </c>
@@ -2984,7 +2985,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="53" spans="1:2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="7" t="s">
         <v>338</v>
       </c>
@@ -2992,7 +2993,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="54" spans="1:2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="7" t="s">
         <v>339</v>
       </c>
@@ -3000,7 +3001,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="55" spans="1:2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="7" t="s">
         <v>340</v>
       </c>
@@ -3008,7 +3009,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="56" spans="1:2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56" s="7" t="s">
         <v>341</v>
       </c>
@@ -3016,7 +3017,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="57" spans="1:2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A57" s="7" t="s">
         <v>342</v>
       </c>
@@ -3024,7 +3025,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="58" spans="1:2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="7" t="s">
         <v>343</v>
       </c>
@@ -3032,7 +3033,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="59" spans="1:2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A59" s="7" t="s">
         <v>344</v>
       </c>
@@ -3040,7 +3041,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="60" spans="1:2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60" s="7" t="s">
         <v>345</v>
       </c>
@@ -3048,7 +3049,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="61" spans="1:2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A61" s="7" t="s">
         <v>346</v>
       </c>
@@ -3056,7 +3057,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="62" spans="1:2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A62" s="7" t="s">
         <v>347</v>
       </c>
@@ -3064,7 +3065,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="63" spans="1:2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A63" s="7" t="s">
         <v>348</v>
       </c>
@@ -3072,7 +3073,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="64" spans="1:2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A64" s="9" t="s">
         <v>349</v>
       </c>
@@ -3080,7 +3081,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="65" spans="1:2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A65" s="7" t="s">
         <v>350</v>
       </c>
@@ -3088,7 +3089,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="66" spans="1:2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A66" s="7" t="s">
         <v>351</v>
       </c>
@@ -3096,7 +3097,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="67" spans="1:2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A67" s="7" t="s">
         <v>352</v>
       </c>
@@ -3104,7 +3105,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="68" spans="1:2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A68" s="7" t="s">
         <v>9</v>
       </c>
@@ -3112,7 +3113,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="69" spans="1:2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A69" s="7" t="s">
         <v>12</v>
       </c>
@@ -3120,7 +3121,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="70" spans="1:2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A70" s="7" t="s">
         <v>353</v>
       </c>
@@ -3128,7 +3129,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="71" spans="1:2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A71" s="7" t="s">
         <v>354</v>
       </c>
@@ -3136,7 +3137,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="72" spans="1:2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A72" s="7" t="s">
         <v>355</v>
       </c>
@@ -3144,7 +3145,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="73" spans="1:2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A73" s="7" t="s">
         <v>8</v>
       </c>
@@ -3152,7 +3153,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="74" spans="1:2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A74" s="7" t="s">
         <v>356</v>
       </c>
@@ -3160,7 +3161,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="75" spans="1:2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A75" s="7" t="s">
         <v>357</v>
       </c>
@@ -3168,7 +3169,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="76" spans="1:2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A76" s="7" t="s">
         <v>358</v>
       </c>
@@ -3176,7 +3177,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="77" spans="1:2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A77" s="7" t="s">
         <v>359</v>
       </c>
@@ -3184,7 +3185,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="78" spans="1:2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A78" s="7" t="s">
         <v>360</v>
       </c>
@@ -3192,7 +3193,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="79" spans="1:2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A79" s="7" t="s">
         <v>361</v>
       </c>
@@ -3200,7 +3201,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="80" spans="1:2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A80" s="7" t="s">
         <v>362</v>
       </c>
@@ -3208,7 +3209,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="81" spans="1:2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A81" s="7" t="s">
         <v>363</v>
       </c>
@@ -3216,7 +3217,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="82" spans="1:2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A82" s="7" t="s">
         <v>364</v>
       </c>
@@ -3224,7 +3225,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="83" spans="1:2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A83" s="7" t="s">
         <v>365</v>
       </c>
@@ -3232,7 +3233,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="84" spans="1:2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A84" s="7" t="s">
         <v>366</v>
       </c>
@@ -3240,7 +3241,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="85" spans="1:2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A85" s="7" t="s">
         <v>367</v>
       </c>
@@ -3248,7 +3249,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="86" spans="1:2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A86" s="7" t="s">
         <v>18</v>
       </c>
@@ -3256,7 +3257,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="87" spans="1:2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A87" s="7" t="s">
         <v>49</v>
       </c>
@@ -3264,7 +3265,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="88" spans="1:2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A88" s="7" t="s">
         <v>75</v>
       </c>
@@ -3272,7 +3273,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="89" spans="1:2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A89" s="7" t="s">
         <v>368</v>
       </c>
@@ -3280,7 +3281,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="90" spans="1:2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A90" s="7" t="s">
         <v>369</v>
       </c>
@@ -3288,7 +3289,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="91" spans="1:2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A91" s="7" t="s">
         <v>370</v>
       </c>
@@ -3296,7 +3297,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="92" spans="1:2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A92" s="7" t="s">
         <v>371</v>
       </c>
@@ -3304,7 +3305,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="93" spans="1:2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A93" s="7" t="s">
         <v>372</v>
       </c>
@@ -3312,7 +3313,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="94" spans="1:2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A94" s="7" t="s">
         <v>373</v>
       </c>
@@ -3320,7 +3321,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="95" spans="1:2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A95" s="7" t="s">
         <v>374</v>
       </c>
@@ -3328,7 +3329,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="96" spans="1:2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A96" s="7" t="s">
         <v>375</v>
       </c>
@@ -3336,7 +3337,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="97" spans="1:2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A97" s="7" t="s">
         <v>376</v>
       </c>
@@ -3344,7 +3345,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="98" spans="1:2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A98" s="7" t="s">
         <v>377</v>
       </c>
@@ -3352,7 +3353,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="99" spans="1:2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A99" s="7" t="s">
         <v>378</v>
       </c>
@@ -3360,7 +3361,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="100" spans="1:2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A100" s="7" t="s">
         <v>379</v>
       </c>
@@ -3368,7 +3369,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="101" spans="1:2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A101" s="7" t="s">
         <v>380</v>
       </c>
@@ -3376,7 +3377,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="102" spans="1:2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A102" s="7" t="s">
         <v>381</v>
       </c>
@@ -3384,7 +3385,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="103" spans="1:2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A103" s="7" t="s">
         <v>382</v>
       </c>
@@ -3392,7 +3393,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="104" spans="1:2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A104" s="7" t="s">
         <v>383</v>
       </c>
@@ -3401,14 +3402,14 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B27"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C1" sqref="C1"/>
@@ -3633,13 +3634,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C49"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2:B49"/>
@@ -3647,8 +3648,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="25.85546875" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="7.5703125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -4092,13 +4093,13 @@
       <c r="C49" s="2"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:B1"/>
@@ -4106,7 +4107,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="21.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -4281,12 +4282,222 @@
   <sortState ref="A2:D21">
     <sortCondition ref="A2:A21"/>
   </sortState>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:D1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="3" width="20.140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="3" width="20.140625" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" style="3" width="10.28515625" collapsed="true"/>
+    <col min="4" max="16384" style="3" width="9.140625" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>447</v>
+      </c>
+      <c r="B1" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B2" s="4">
+        <v>0</v>
+      </c>
+      <c r="C2" s="4"/>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B3" s="4">
+        <v>0</v>
+      </c>
+      <c r="C3" s="4"/>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B4" s="4">
+        <v>0</v>
+      </c>
+      <c r="C4" s="4"/>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B5" s="4">
+        <v>0</v>
+      </c>
+      <c r="C5" s="4"/>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B6" s="4">
+        <v>0</v>
+      </c>
+      <c r="C6" s="4"/>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B7" s="4">
+        <v>0</v>
+      </c>
+      <c r="C7" s="4"/>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B8" s="4">
+        <v>0</v>
+      </c>
+      <c r="C8" s="4"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B9" s="4">
+        <v>0</v>
+      </c>
+      <c r="C9" s="4"/>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B10" s="4">
+        <v>0</v>
+      </c>
+      <c r="C10" s="4"/>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B11" s="4">
+        <v>0</v>
+      </c>
+      <c r="C11" s="4"/>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B12" s="4">
+        <v>0</v>
+      </c>
+      <c r="C12" s="4"/>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B13" s="4">
+        <v>0</v>
+      </c>
+      <c r="C13" s="4"/>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B14" s="4">
+        <v>0</v>
+      </c>
+      <c r="C14" s="4"/>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B15" s="4">
+        <v>0</v>
+      </c>
+      <c r="C15" s="4"/>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B16" s="4">
+        <v>0</v>
+      </c>
+      <c r="C16" s="4"/>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B17" s="4">
+        <v>0</v>
+      </c>
+      <c r="C17" s="4"/>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B18" s="4">
+        <v>0</v>
+      </c>
+      <c r="C18" s="4"/>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B19" s="4">
+        <v>0</v>
+      </c>
+      <c r="C19" s="4"/>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B20" s="4">
+        <v>0</v>
+      </c>
+      <c r="C20" s="4"/>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B21" s="4">
+        <v>0</v>
+      </c>
+      <c r="C21" s="4"/>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4295,13 +4506,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.140625" style="3" customWidth="1"/>
-    <col min="3" max="3" width="10.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="3"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="3" width="22.42578125" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="3" width="9.42578125" collapsed="true"/>
+    <col min="3" max="16384" style="3" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>447</v>
       </c>
@@ -4309,195 +4519,700 @@
         <v>448</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>39</v>
+        <v>58</v>
       </c>
       <c r="B2" s="4">
         <v>0</v>
       </c>
-      <c r="C2" s="4"/>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>40</v>
+        <v>59</v>
       </c>
       <c r="B3" s="4">
         <v>0</v>
       </c>
-      <c r="C3" s="4"/>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>41</v>
+        <v>60</v>
       </c>
       <c r="B4" s="4">
         <v>0</v>
       </c>
-      <c r="C4" s="4"/>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>42</v>
+        <v>61</v>
       </c>
       <c r="B5" s="4">
         <v>0</v>
       </c>
-      <c r="C5" s="4"/>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>43</v>
+        <v>62</v>
       </c>
       <c r="B6" s="4">
         <v>0</v>
       </c>
-      <c r="C6" s="4"/>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>44</v>
+        <v>63</v>
       </c>
       <c r="B7" s="4">
         <v>0</v>
       </c>
-      <c r="C7" s="4"/>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>45</v>
+        <v>64</v>
       </c>
       <c r="B8" s="4">
         <v>0</v>
       </c>
-      <c r="C8" s="4"/>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>46</v>
+        <v>65</v>
       </c>
       <c r="B9" s="4">
         <v>0</v>
       </c>
-      <c r="C9" s="4"/>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>47</v>
+        <v>66</v>
       </c>
       <c r="B10" s="4">
         <v>0</v>
       </c>
-      <c r="C10" s="4"/>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>48</v>
+        <v>67</v>
       </c>
       <c r="B11" s="4">
         <v>0</v>
       </c>
-      <c r="C11" s="4"/>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>49</v>
+        <v>68</v>
       </c>
       <c r="B12" s="4">
         <v>0</v>
       </c>
-      <c r="C12" s="4"/>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>50</v>
+        <v>69</v>
       </c>
       <c r="B13" s="4">
         <v>0</v>
       </c>
-      <c r="C13" s="4"/>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>51</v>
+        <v>70</v>
       </c>
       <c r="B14" s="4">
         <v>0</v>
       </c>
-      <c r="C14" s="4"/>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>52</v>
+        <v>71</v>
       </c>
       <c r="B15" s="4">
         <v>0</v>
       </c>
-      <c r="C15" s="4"/>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>53</v>
+        <v>72</v>
       </c>
       <c r="B16" s="4">
         <v>0</v>
       </c>
-      <c r="C16" s="4"/>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>54</v>
+        <v>73</v>
       </c>
       <c r="B17" s="4">
         <v>0</v>
       </c>
-      <c r="C17" s="4"/>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>18</v>
+        <v>74</v>
       </c>
       <c r="B18" s="4">
         <v>0</v>
       </c>
-      <c r="C18" s="4"/>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>55</v>
+        <v>75</v>
       </c>
       <c r="B19" s="4">
         <v>0</v>
       </c>
-      <c r="C19" s="4"/>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>56</v>
+        <v>76</v>
       </c>
       <c r="B20" s="4">
         <v>0</v>
       </c>
-      <c r="C20" s="4"/>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>57</v>
+        <v>77</v>
       </c>
       <c r="B21" s="4">
         <v>0</v>
       </c>
-      <c r="C21" s="4"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B21"/>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="3" width="20.7109375" collapsed="true"/>
+    <col min="2" max="16384" style="3" width="9.140625" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>447</v>
+      </c>
+      <c r="B1" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="B2" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="B3" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B4" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="B5" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B6" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="B7" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B8" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="B9" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="B10" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="B11" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="B12" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="B13" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="B14" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B15" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="B16" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="B17" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="B18" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="B19" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="B20" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B21" s="4">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C40"/>
+  <sheetViews>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="3" width="30.42578125" collapsed="true"/>
+    <col min="2" max="16384" style="3" width="9.140625" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>447</v>
+      </c>
+      <c r="B1" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="B2" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="B3" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="B4" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="B5" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="B6" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="B7" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="B8" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="B9" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="B10" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="B11" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="B12" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="B13" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="B14" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="B15" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="B16" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="B17" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="B18" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="B19" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="B20" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="B21" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="B22" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="B23" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="B24" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="B25" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="B26" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="B27" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="B28" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="B29" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="B30" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="B31" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="B32" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="B33" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="B34" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="B35" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="B36" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="B37" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="B38" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="B39" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="B40" s="4">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C1" sqref="C1:D1048576"/>
@@ -4505,9 +5220,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="9.140625" style="3"/>
+    <col min="1" max="16384" style="3" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -4520,718 +5233,6 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="B2" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="B3" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="B4" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="B5" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="B6" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="B7" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="B8" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="B9" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="B10" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="B11" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="B12" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="B13" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="B14" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="B15" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="B16" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="B17" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="B18" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="B19" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="B20" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="B21" s="4">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B21"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="20.7109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="16384" width="9.140625" style="3"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>447</v>
-      </c>
-      <c r="B1" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="B2" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="B3" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="B4" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="B5" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="B6" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="B7" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="B8" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="B9" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="B10" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="B11" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="B12" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="B13" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="B14" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="B15" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="B16" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="B17" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="B18" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="B19" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="B20" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B21" s="4">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B40"/>
-  <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="30.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="16384" width="9.140625" style="3"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>447</v>
-      </c>
-      <c r="B1" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="B2" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="B3" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="B4" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="B5" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="B6" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="B7" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="B8" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="B9" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="B10" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="B11" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="B12" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="B13" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="B14" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="B15" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="B16" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="B17" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="B18" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="B19" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="B20" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="B21" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="B22" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="B23" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="B24" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="B25" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="B26" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="B27" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="B28" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="B29" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="B30" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="B31" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="B32" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="B33" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="B34" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="B35" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="B36" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="B37" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="B38" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="B39" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A40" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="B40" s="4">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B21"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:D1048576"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="16384" width="9.140625" style="3"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>447</v>
-      </c>
-      <c r="B1" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
         <v>135</v>
       </c>
       <c r="B2" s="4">
@@ -5391,13 +5392,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B18"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2:B18"/>
@@ -5405,8 +5406,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="16384" width="9.140625" style="3"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="3" width="28.0" collapsed="true"/>
+    <col min="2" max="16384" style="3" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -5554,13 +5555,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B50"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
@@ -5568,12 +5569,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="32.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="9.140625" style="3"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="3" width="32.28515625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="5" width="11.85546875" collapsed="true"/>
+    <col min="3" max="16384" style="3" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="1" spans="1:2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>447</v>
       </c>
@@ -5581,7 +5582,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="2" spans="1:2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>172</v>
       </c>
@@ -5589,7 +5590,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="3" spans="1:2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
         <v>173</v>
       </c>
@@ -5597,7 +5598,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="4" spans="1:2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
         <v>174</v>
       </c>
@@ -5605,7 +5606,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="5" spans="1:2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
         <v>175</v>
       </c>
@@ -5613,7 +5614,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="6" spans="1:2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
         <v>176</v>
       </c>
@@ -5621,7 +5622,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="7" spans="1:2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
         <v>177</v>
       </c>
@@ -5629,7 +5630,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="8" spans="1:2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>1</v>
       </c>
@@ -5637,7 +5638,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="9" spans="1:2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="s">
         <v>178</v>
       </c>
@@ -5645,7 +5646,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="10" spans="1:2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
         <v>179</v>
       </c>
@@ -5653,7 +5654,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="11" spans="1:2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="7" t="s">
         <v>180</v>
       </c>
@@ -5661,7 +5662,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="12" spans="1:2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="7" t="s">
         <v>181</v>
       </c>
@@ -5669,7 +5670,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="13" spans="1:2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="s">
         <v>182</v>
       </c>
@@ -5677,7 +5678,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="14" spans="1:2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="7" t="s">
         <v>183</v>
       </c>
@@ -5685,7 +5686,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="15" spans="1:2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="7" t="s">
         <v>184</v>
       </c>
@@ -5693,7 +5694,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="16" spans="1:2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="7" t="s">
         <v>185</v>
       </c>
@@ -5701,7 +5702,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="17" spans="1:2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="7" t="s">
         <v>186</v>
       </c>
@@ -5709,7 +5710,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="18" spans="1:2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="7" t="s">
         <v>187</v>
       </c>
@@ -5717,7 +5718,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="19" spans="1:2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="7" t="s">
         <v>188</v>
       </c>
@@ -5725,7 +5726,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="20" spans="1:2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="9" t="s">
         <v>189</v>
       </c>
@@ -5733,7 +5734,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="21" spans="1:2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="7" t="s">
         <v>190</v>
       </c>
@@ -5741,7 +5742,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="22" spans="1:2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="7" t="s">
         <v>191</v>
       </c>
@@ -5749,7 +5750,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="23" spans="1:2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="7" t="s">
         <v>192</v>
       </c>
@@ -5757,7 +5758,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="24" spans="1:2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="7" t="s">
         <v>193</v>
       </c>
@@ -5765,7 +5766,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="25" spans="1:2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="7" t="s">
         <v>194</v>
       </c>
@@ -5773,7 +5774,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="26" spans="1:2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="7" t="s">
         <v>195</v>
       </c>
@@ -5781,7 +5782,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="27" spans="1:2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="7" t="s">
         <v>196</v>
       </c>
@@ -5789,7 +5790,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="28" spans="1:2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="7" t="s">
         <v>197</v>
       </c>
@@ -5797,7 +5798,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="29" spans="1:2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="7" t="s">
         <v>198</v>
       </c>
@@ -5805,7 +5806,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="30" spans="1:2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="7" t="s">
         <v>199</v>
       </c>
@@ -5813,7 +5814,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="31" spans="1:2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="7" t="s">
         <v>200</v>
       </c>
@@ -5821,7 +5822,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="32" spans="1:2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="7" t="s">
         <v>201</v>
       </c>
@@ -5829,7 +5830,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="33" spans="1:2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="7" t="s">
         <v>202</v>
       </c>
@@ -5837,7 +5838,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="34" spans="1:2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="7" t="s">
         <v>203</v>
       </c>
@@ -5845,7 +5846,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="35" spans="1:2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="7" t="s">
         <v>204</v>
       </c>
@@ -5853,7 +5854,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="36" spans="1:2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="7" t="s">
         <v>205</v>
       </c>
@@ -5861,7 +5862,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="37" spans="1:2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="7" t="s">
         <v>206</v>
       </c>
@@ -5869,7 +5870,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="38" spans="1:2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="7" t="s">
         <v>207</v>
       </c>
@@ -5877,7 +5878,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="39" spans="1:2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="7" t="s">
         <v>208</v>
       </c>
@@ -5885,7 +5886,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="40" spans="1:2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="7" t="s">
         <v>209</v>
       </c>
@@ -5893,7 +5894,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="41" spans="1:2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="7" t="s">
         <v>210</v>
       </c>
@@ -5901,7 +5902,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="42" spans="1:2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="7" t="s">
         <v>211</v>
       </c>
@@ -5909,7 +5910,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="43" spans="1:2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="7" t="s">
         <v>212</v>
       </c>
@@ -5917,7 +5918,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="44" spans="1:2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="7" t="s">
         <v>213</v>
       </c>
@@ -5925,7 +5926,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="45" spans="1:2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="7" t="s">
         <v>2</v>
       </c>
@@ -5933,7 +5934,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="46" spans="1:2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="7" t="s">
         <v>214</v>
       </c>
@@ -5941,7 +5942,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="47" spans="1:2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="7" t="s">
         <v>215</v>
       </c>
@@ -5949,7 +5950,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="48" spans="1:2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="7" t="s">
         <v>216</v>
       </c>
@@ -5957,7 +5958,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="49" spans="1:2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="7" t="s">
         <v>217</v>
       </c>
@@ -5965,7 +5966,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="50" spans="1:2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="7" t="s">
         <v>218</v>
       </c>
@@ -5974,7 +5975,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>